--- a/pvv/plots.xlsx
+++ b/pvv/plots.xlsx
@@ -4,11 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Toc527495659" localSheetId="0">Лист1!$I$80</definedName>
+    <definedName name="_Toc527495660" localSheetId="0">Лист1!$B$125</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
   <si>
     <t>time</t>
   </si>
@@ -38,15 +42,42 @@
   <si>
     <t>SpMV</t>
   </si>
+  <si>
+    <t>op</t>
+  </si>
+  <si>
+    <t>Nt</t>
+  </si>
+  <si>
+    <t>(10, 10, 10) Gflops</t>
+  </si>
+  <si>
+    <t>(10, 10, 100) Gflops</t>
+  </si>
+  <si>
+    <t>(10, 100, 100) Gflops</t>
+  </si>
+  <si>
+    <t>(100, 100, 100) Gflops</t>
+  </si>
+  <si>
+    <t>(100, 100, 1000) Gflops</t>
+  </si>
+  <si>
+    <t>Процент от пика</t>
+  </si>
+  <si>
+    <t>Процент от достижимой производительности</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +92,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -70,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -204,11 +242,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -225,23 +328,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -250,13 +353,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3940,16 +4086,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:K167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="J125" sqref="J125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="22.5703125" customWidth="1"/>
-    <col min="8" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4389,7 +4536,1946 @@
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
     </row>
+    <row r="76" spans="1:7" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="21">
+        <v>1</v>
+      </c>
+      <c r="C78" s="26">
+        <v>0.117285</v>
+      </c>
+      <c r="D78" s="26">
+        <v>1.0152600000000001</v>
+      </c>
+      <c r="E78" s="26">
+        <v>1.2239199999999999</v>
+      </c>
+      <c r="F78" s="26">
+        <v>1.22346</v>
+      </c>
+      <c r="G78" s="27">
+        <v>1.3051999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="23"/>
+      <c r="B79" s="21">
+        <v>2</v>
+      </c>
+      <c r="C79" s="26">
+        <v>0.13803099999999999</v>
+      </c>
+      <c r="D79" s="26">
+        <v>0.53390800000000005</v>
+      </c>
+      <c r="E79" s="26">
+        <v>1.5988100000000001</v>
+      </c>
+      <c r="F79" s="26">
+        <v>2.4448699999999999</v>
+      </c>
+      <c r="G79" s="27">
+        <v>2.1134300000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="23"/>
+      <c r="B80" s="21">
+        <v>4</v>
+      </c>
+      <c r="C80" s="26">
+        <v>5.0552800000000002E-2</v>
+      </c>
+      <c r="D80" s="26">
+        <v>0.50823200000000002</v>
+      </c>
+      <c r="E80" s="26">
+        <v>2.0821900000000002</v>
+      </c>
+      <c r="F80" s="26">
+        <v>4.1936999999999998</v>
+      </c>
+      <c r="G80" s="27">
+        <v>4.2588299999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="23"/>
+      <c r="B81" s="21">
+        <v>8</v>
+      </c>
+      <c r="C81" s="26">
+        <v>4.0982499999999998E-2</v>
+      </c>
+      <c r="D81" s="26">
+        <v>0.37384000000000001</v>
+      </c>
+      <c r="E81" s="26">
+        <v>2.1013799999999998</v>
+      </c>
+      <c r="F81" s="26">
+        <v>6.2388399999999997</v>
+      </c>
+      <c r="G81" s="27">
+        <v>7.2864699999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="23"/>
+      <c r="B82" s="21">
+        <v>10</v>
+      </c>
+      <c r="C82" s="26">
+        <v>3.7536899999999998E-2</v>
+      </c>
+      <c r="D82" s="26">
+        <v>0.44701999999999997</v>
+      </c>
+      <c r="E82" s="26">
+        <v>2.40625</v>
+      </c>
+      <c r="F82" s="26">
+        <v>5.9834199999999997</v>
+      </c>
+      <c r="G82" s="27">
+        <v>6.50556</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="25"/>
+      <c r="B83" s="22">
+        <v>16</v>
+      </c>
+      <c r="C83" s="28">
+        <v>1.7347499999999998E-2</v>
+      </c>
+      <c r="D83" s="28">
+        <v>2.8064599999999999E-2</v>
+      </c>
+      <c r="E83" s="28">
+        <v>0.51692000000000005</v>
+      </c>
+      <c r="F83" s="28">
+        <v>5.5456099999999999</v>
+      </c>
+      <c r="G83" s="29">
+        <v>7.15212</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="21">
+        <v>1</v>
+      </c>
+      <c r="C84" s="26">
+        <v>1.3848800000000001</v>
+      </c>
+      <c r="D84" s="26">
+        <v>2.70146</v>
+      </c>
+      <c r="E84" s="26">
+        <v>2.89934</v>
+      </c>
+      <c r="F84" s="26">
+        <v>1.8375699999999999</v>
+      </c>
+      <c r="G84" s="27">
+        <v>2.7118899999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="23"/>
+      <c r="B85" s="21">
+        <v>2</v>
+      </c>
+      <c r="C85" s="26">
+        <v>1.4005300000000001</v>
+      </c>
+      <c r="D85" s="26">
+        <v>1.6383000000000001</v>
+      </c>
+      <c r="E85" s="26">
+        <v>4.2565999999999997</v>
+      </c>
+      <c r="F85" s="26">
+        <v>5.1111399999999998</v>
+      </c>
+      <c r="G85" s="27">
+        <v>3.2193800000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="23"/>
+      <c r="B86" s="21">
+        <v>4</v>
+      </c>
+      <c r="C86" s="26">
+        <v>1.0941700000000001</v>
+      </c>
+      <c r="D86" s="26">
+        <v>4.6616900000000001</v>
+      </c>
+      <c r="E86" s="26">
+        <v>6.2618600000000004</v>
+      </c>
+      <c r="F86" s="26">
+        <v>11.054</v>
+      </c>
+      <c r="G86" s="27">
+        <v>9.4203399999999995</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="23"/>
+      <c r="B87" s="21">
+        <v>8</v>
+      </c>
+      <c r="C87" s="26">
+        <v>0.62354299999999996</v>
+      </c>
+      <c r="D87" s="26">
+        <v>4.5704099999999999</v>
+      </c>
+      <c r="E87" s="26">
+        <v>7.1049100000000003</v>
+      </c>
+      <c r="F87" s="26">
+        <v>12.931900000000001</v>
+      </c>
+      <c r="G87" s="27">
+        <v>10.780099999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="23"/>
+      <c r="B88" s="21">
+        <v>10</v>
+      </c>
+      <c r="C88" s="26">
+        <v>0.60232300000000005</v>
+      </c>
+      <c r="D88" s="26">
+        <v>3.87446</v>
+      </c>
+      <c r="E88" s="26">
+        <v>7.9990699999999997</v>
+      </c>
+      <c r="F88" s="26">
+        <v>9.2840299999999996</v>
+      </c>
+      <c r="G88" s="27">
+        <v>10.4717</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="25"/>
+      <c r="B89" s="22">
+        <v>16</v>
+      </c>
+      <c r="C89" s="28">
+        <v>0.75403200000000004</v>
+      </c>
+      <c r="D89" s="28">
+        <v>2.2169500000000002</v>
+      </c>
+      <c r="E89" s="28">
+        <v>2.89934</v>
+      </c>
+      <c r="F89" s="28">
+        <v>14.2317</v>
+      </c>
+      <c r="G89" s="29">
+        <v>11.686400000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="21">
+        <v>1</v>
+      </c>
+      <c r="C90" s="26">
+        <v>0.82941900000000002</v>
+      </c>
+      <c r="D90" s="26">
+        <v>1.0023599999999999</v>
+      </c>
+      <c r="E90" s="26">
+        <v>1.0656699999999999</v>
+      </c>
+      <c r="F90" s="26">
+        <v>1.07443</v>
+      </c>
+      <c r="G90" s="27">
+        <v>1.0495699999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="23"/>
+      <c r="B91" s="21">
+        <v>2</v>
+      </c>
+      <c r="C91" s="26">
+        <v>1.34771</v>
+      </c>
+      <c r="D91" s="26">
+        <v>1.20357</v>
+      </c>
+      <c r="E91" s="26">
+        <v>2.06568</v>
+      </c>
+      <c r="F91" s="26">
+        <v>2.0727199999999999</v>
+      </c>
+      <c r="G91" s="27">
+        <v>1.62066</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="23"/>
+      <c r="B92" s="21">
+        <v>4</v>
+      </c>
+      <c r="C92" s="26">
+        <v>1.1970400000000001</v>
+      </c>
+      <c r="D92" s="26">
+        <v>2.6794699999999998</v>
+      </c>
+      <c r="E92" s="26">
+        <v>2.9403700000000002</v>
+      </c>
+      <c r="F92" s="26">
+        <v>4.2672400000000001</v>
+      </c>
+      <c r="G92" s="27">
+        <v>3.9350499999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="23"/>
+      <c r="B93" s="21">
+        <v>8</v>
+      </c>
+      <c r="C93" s="26">
+        <v>0.74270700000000001</v>
+      </c>
+      <c r="D93" s="26">
+        <v>2.7589399999999999</v>
+      </c>
+      <c r="E93" s="26">
+        <v>3.3019599999999998</v>
+      </c>
+      <c r="F93" s="26">
+        <v>5.1990299999999996</v>
+      </c>
+      <c r="G93" s="27">
+        <v>5.1117100000000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="23"/>
+      <c r="B94" s="21">
+        <v>10</v>
+      </c>
+      <c r="C94" s="26">
+        <v>0.70647499999999996</v>
+      </c>
+      <c r="D94" s="26">
+        <v>2.7422399999999998</v>
+      </c>
+      <c r="E94" s="26">
+        <v>3.7055699999999998</v>
+      </c>
+      <c r="F94" s="26">
+        <v>4.43682</v>
+      </c>
+      <c r="G94" s="27">
+        <v>5.8517700000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="25"/>
+      <c r="B95" s="22">
+        <v>16</v>
+      </c>
+      <c r="C95" s="28">
+        <v>0.585009</v>
+      </c>
+      <c r="D95" s="28">
+        <v>2.4961600000000002</v>
+      </c>
+      <c r="E95" s="28">
+        <v>3.9525199999999998</v>
+      </c>
+      <c r="F95" s="28">
+        <v>7.1849400000000001</v>
+      </c>
+      <c r="G95" s="29">
+        <v>5.97079</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="1:11" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" s="21">
+        <v>1</v>
+      </c>
+      <c r="C101" s="26">
+        <f>C78  / ($I$101 * $B101)</f>
+        <v>3.2354482758620691</v>
+      </c>
+      <c r="D101" s="26">
+        <f t="shared" ref="D101:G101" si="0">D78  / ($I$101 * $B101)</f>
+        <v>28.007172413793107</v>
+      </c>
+      <c r="E101" s="26">
+        <f t="shared" si="0"/>
+        <v>33.763310344827588</v>
+      </c>
+      <c r="F101" s="26">
+        <f t="shared" si="0"/>
+        <v>33.750620689655172</v>
+      </c>
+      <c r="G101" s="26">
+        <f t="shared" si="0"/>
+        <v>36.005517241379309</v>
+      </c>
+      <c r="I101" s="30">
+        <v>3.6249999999999998E-2</v>
+      </c>
+      <c r="K101" s="30"/>
+    </row>
+    <row r="102" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="23"/>
+      <c r="B102" s="21">
+        <v>2</v>
+      </c>
+      <c r="C102" s="26">
+        <f t="shared" ref="C102:G118" si="1">C79  / ($I$101 * $B102)</f>
+        <v>1.9038758620689655</v>
+      </c>
+      <c r="D102" s="26">
+        <f t="shared" si="1"/>
+        <v>7.36424827586207</v>
+      </c>
+      <c r="E102" s="26">
+        <f t="shared" si="1"/>
+        <v>22.052551724137935</v>
+      </c>
+      <c r="F102" s="26">
+        <f t="shared" si="1"/>
+        <v>33.722344827586205</v>
+      </c>
+      <c r="G102" s="26">
+        <f t="shared" si="1"/>
+        <v>29.150758620689658</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="23"/>
+      <c r="B103" s="21">
+        <v>4</v>
+      </c>
+      <c r="C103" s="26">
+        <f t="shared" si="1"/>
+        <v>0.34864000000000006</v>
+      </c>
+      <c r="D103" s="26">
+        <f t="shared" si="1"/>
+        <v>3.5050482758620691</v>
+      </c>
+      <c r="E103" s="26">
+        <f t="shared" si="1"/>
+        <v>14.359931034482761</v>
+      </c>
+      <c r="F103" s="26">
+        <f t="shared" si="1"/>
+        <v>28.922068965517241</v>
+      </c>
+      <c r="G103" s="26">
+        <f t="shared" si="1"/>
+        <v>29.371241379310344</v>
+      </c>
+      <c r="I103" s="30">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="23"/>
+      <c r="B104" s="21">
+        <v>8</v>
+      </c>
+      <c r="C104" s="26">
+        <f t="shared" si="1"/>
+        <v>0.14131896551724138</v>
+      </c>
+      <c r="D104" s="26">
+        <f t="shared" si="1"/>
+        <v>1.2891034482758621</v>
+      </c>
+      <c r="E104" s="26">
+        <f t="shared" si="1"/>
+        <v>7.2461379310344824</v>
+      </c>
+      <c r="F104" s="26">
+        <f t="shared" si="1"/>
+        <v>21.513241379310344</v>
+      </c>
+      <c r="G104" s="26">
+        <f t="shared" si="1"/>
+        <v>25.125758620689655</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="23"/>
+      <c r="B105" s="21">
+        <v>10</v>
+      </c>
+      <c r="C105" s="26">
+        <f t="shared" si="1"/>
+        <v>0.10355006896551724</v>
+      </c>
+      <c r="D105" s="26">
+        <f t="shared" si="1"/>
+        <v>1.2331586206896552</v>
+      </c>
+      <c r="E105" s="26">
+        <f t="shared" si="1"/>
+        <v>6.6379310344827589</v>
+      </c>
+      <c r="F105" s="26">
+        <f t="shared" si="1"/>
+        <v>16.505986206896551</v>
+      </c>
+      <c r="G105" s="26">
+        <f t="shared" si="1"/>
+        <v>17.946372413793103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="25"/>
+      <c r="B106" s="22">
+        <v>16</v>
+      </c>
+      <c r="C106" s="26">
+        <f t="shared" si="1"/>
+        <v>2.9909482758620688E-2</v>
+      </c>
+      <c r="D106" s="26">
+        <f t="shared" si="1"/>
+        <v>4.8387241379310345E-2</v>
+      </c>
+      <c r="E106" s="26">
+        <f t="shared" si="1"/>
+        <v>0.89124137931034497</v>
+      </c>
+      <c r="F106" s="26">
+        <f t="shared" si="1"/>
+        <v>9.5613965517241386</v>
+      </c>
+      <c r="G106" s="26">
+        <f t="shared" si="1"/>
+        <v>12.331241379310345</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" s="21">
+        <v>1</v>
+      </c>
+      <c r="C107" s="26">
+        <f t="shared" si="1"/>
+        <v>38.20358620689656</v>
+      </c>
+      <c r="D107" s="26">
+        <f t="shared" si="1"/>
+        <v>74.523034482758618</v>
+      </c>
+      <c r="E107" s="26">
+        <f t="shared" si="1"/>
+        <v>79.981793103448283</v>
+      </c>
+      <c r="F107" s="26">
+        <f t="shared" si="1"/>
+        <v>50.691586206896552</v>
+      </c>
+      <c r="G107" s="26">
+        <f t="shared" si="1"/>
+        <v>74.810758620689654</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="23"/>
+      <c r="B108" s="21">
+        <v>2</v>
+      </c>
+      <c r="C108" s="26">
+        <f t="shared" si="1"/>
+        <v>19.317655172413794</v>
+      </c>
+      <c r="D108" s="26">
+        <f t="shared" si="1"/>
+        <v>22.597241379310347</v>
+      </c>
+      <c r="E108" s="26">
+        <f t="shared" si="1"/>
+        <v>58.711724137931036</v>
+      </c>
+      <c r="F108" s="26">
+        <f t="shared" si="1"/>
+        <v>70.498482758620696</v>
+      </c>
+      <c r="G108" s="26">
+        <f t="shared" si="1"/>
+        <v>44.405241379310347</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="23"/>
+      <c r="B109" s="21">
+        <v>4</v>
+      </c>
+      <c r="C109" s="26">
+        <f t="shared" si="1"/>
+        <v>7.5460000000000012</v>
+      </c>
+      <c r="D109" s="26">
+        <f t="shared" si="1"/>
+        <v>32.149586206896558</v>
+      </c>
+      <c r="E109" s="26">
+        <f t="shared" si="1"/>
+        <v>43.185241379310348</v>
+      </c>
+      <c r="F109" s="26">
+        <f t="shared" si="1"/>
+        <v>76.2344827586207</v>
+      </c>
+      <c r="G109" s="26">
+        <f t="shared" si="1"/>
+        <v>64.967862068965516</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="23"/>
+      <c r="B110" s="21">
+        <v>8</v>
+      </c>
+      <c r="C110" s="26">
+        <f t="shared" si="1"/>
+        <v>2.1501482758620689</v>
+      </c>
+      <c r="D110" s="26">
+        <f t="shared" si="1"/>
+        <v>15.760034482758622</v>
+      </c>
+      <c r="E110" s="26">
+        <f t="shared" si="1"/>
+        <v>24.499689655172418</v>
+      </c>
+      <c r="F110" s="26">
+        <f t="shared" si="1"/>
+        <v>44.592758620689658</v>
+      </c>
+      <c r="G110" s="26">
+        <f t="shared" si="1"/>
+        <v>37.172758620689656</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="23"/>
+      <c r="B111" s="21">
+        <v>10</v>
+      </c>
+      <c r="C111" s="26">
+        <f t="shared" si="1"/>
+        <v>1.6615806896551726</v>
+      </c>
+      <c r="D111" s="26">
+        <f t="shared" si="1"/>
+        <v>10.68816551724138</v>
+      </c>
+      <c r="E111" s="26">
+        <f t="shared" si="1"/>
+        <v>22.066400000000002</v>
+      </c>
+      <c r="F111" s="26">
+        <f t="shared" si="1"/>
+        <v>25.611117241379311</v>
+      </c>
+      <c r="G111" s="26">
+        <f t="shared" si="1"/>
+        <v>28.88744827586207</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="25"/>
+      <c r="B112" s="22">
+        <v>16</v>
+      </c>
+      <c r="C112" s="26">
+        <f t="shared" si="1"/>
+        <v>1.3000551724137932</v>
+      </c>
+      <c r="D112" s="26">
+        <f t="shared" si="1"/>
+        <v>3.8223275862068973</v>
+      </c>
+      <c r="E112" s="26">
+        <f t="shared" si="1"/>
+        <v>4.9988620689655177</v>
+      </c>
+      <c r="F112" s="26">
+        <f t="shared" si="1"/>
+        <v>24.53741379310345</v>
+      </c>
+      <c r="G112" s="26">
+        <f t="shared" si="1"/>
+        <v>20.148965517241383</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" s="21">
+        <v>1</v>
+      </c>
+      <c r="C113" s="26">
+        <f t="shared" si="1"/>
+        <v>22.880524137931037</v>
+      </c>
+      <c r="D113" s="26">
+        <f t="shared" si="1"/>
+        <v>27.651310344827586</v>
+      </c>
+      <c r="E113" s="26">
+        <f t="shared" si="1"/>
+        <v>29.397793103448276</v>
+      </c>
+      <c r="F113" s="26">
+        <f t="shared" si="1"/>
+        <v>29.639448275862073</v>
+      </c>
+      <c r="G113" s="26">
+        <f t="shared" si="1"/>
+        <v>28.953655172413793</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="23"/>
+      <c r="B114" s="21">
+        <v>2</v>
+      </c>
+      <c r="C114" s="26">
+        <f t="shared" si="1"/>
+        <v>18.589103448275864</v>
+      </c>
+      <c r="D114" s="26">
+        <f t="shared" si="1"/>
+        <v>16.600965517241381</v>
+      </c>
+      <c r="E114" s="26">
+        <f t="shared" si="1"/>
+        <v>28.492137931034485</v>
+      </c>
+      <c r="F114" s="26">
+        <f t="shared" si="1"/>
+        <v>28.589241379310344</v>
+      </c>
+      <c r="G114" s="26">
+        <f t="shared" si="1"/>
+        <v>22.353931034482759</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="23"/>
+      <c r="B115" s="21">
+        <v>4</v>
+      </c>
+      <c r="C115" s="26">
+        <f t="shared" si="1"/>
+        <v>8.2554482758620704</v>
+      </c>
+      <c r="D115" s="26">
+        <f t="shared" si="1"/>
+        <v>18.479103448275861</v>
+      </c>
+      <c r="E115" s="26">
+        <f t="shared" si="1"/>
+        <v>20.27841379310345</v>
+      </c>
+      <c r="F115" s="26">
+        <f t="shared" si="1"/>
+        <v>29.429241379310348</v>
+      </c>
+      <c r="G115" s="26">
+        <f t="shared" si="1"/>
+        <v>27.138275862068966</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="23"/>
+      <c r="B116" s="21">
+        <v>8</v>
+      </c>
+      <c r="C116" s="26">
+        <f t="shared" si="1"/>
+        <v>2.5610586206896553</v>
+      </c>
+      <c r="D116" s="26">
+        <f t="shared" si="1"/>
+        <v>9.5135862068965515</v>
+      </c>
+      <c r="E116" s="26">
+        <f t="shared" si="1"/>
+        <v>11.386068965517241</v>
+      </c>
+      <c r="F116" s="26">
+        <f t="shared" si="1"/>
+        <v>17.927689655172415</v>
+      </c>
+      <c r="G116" s="26">
+        <f t="shared" si="1"/>
+        <v>17.626586206896555</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="23"/>
+      <c r="B117" s="21">
+        <v>10</v>
+      </c>
+      <c r="C117" s="26">
+        <f t="shared" si="1"/>
+        <v>1.9488965517241379</v>
+      </c>
+      <c r="D117" s="26">
+        <f t="shared" si="1"/>
+        <v>7.5648</v>
+      </c>
+      <c r="E117" s="26">
+        <f t="shared" si="1"/>
+        <v>10.222262068965517</v>
+      </c>
+      <c r="F117" s="26">
+        <f t="shared" si="1"/>
+        <v>12.239503448275862</v>
+      </c>
+      <c r="G117" s="26">
+        <f t="shared" si="1"/>
+        <v>16.14281379310345</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="25"/>
+      <c r="B118" s="22">
+        <v>16</v>
+      </c>
+      <c r="C118" s="26">
+        <f t="shared" si="1"/>
+        <v>1.0086362068965518</v>
+      </c>
+      <c r="D118" s="26">
+        <f t="shared" si="1"/>
+        <v>4.3037241379310354</v>
+      </c>
+      <c r="E118" s="26">
+        <f t="shared" si="1"/>
+        <v>6.8146896551724137</v>
+      </c>
+      <c r="F118" s="26">
+        <f t="shared" si="1"/>
+        <v>12.387827586206898</v>
+      </c>
+      <c r="G118" s="26">
+        <f t="shared" si="1"/>
+        <v>10.294465517241379</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" s="19">
+        <v>1000</v>
+      </c>
+      <c r="D126" s="19">
+        <v>10000</v>
+      </c>
+      <c r="E126" s="19">
+        <v>100000</v>
+      </c>
+      <c r="F126" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G126" s="20">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127" s="21">
+        <v>1</v>
+      </c>
+      <c r="C127" s="26">
+        <v>0.117285</v>
+      </c>
+      <c r="D127" s="26">
+        <v>1.0152600000000001</v>
+      </c>
+      <c r="E127" s="26">
+        <v>1.2239199999999999</v>
+      </c>
+      <c r="F127" s="26">
+        <v>1.22346</v>
+      </c>
+      <c r="G127" s="27">
+        <v>1.3051999999999999</v>
+      </c>
+      <c r="H127" s="31">
+        <f xml:space="preserve"> MIN($I$127 * $B127, $I$134 * $I$129)</f>
+        <v>3.625</v>
+      </c>
+      <c r="I127" s="30">
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="23"/>
+      <c r="B128" s="21">
+        <v>2</v>
+      </c>
+      <c r="C128" s="26">
+        <v>0.13803099999999999</v>
+      </c>
+      <c r="D128" s="26">
+        <v>0.53390800000000005</v>
+      </c>
+      <c r="E128" s="26">
+        <v>1.5988100000000001</v>
+      </c>
+      <c r="F128" s="26">
+        <v>2.4448699999999999</v>
+      </c>
+      <c r="G128" s="27">
+        <v>2.1134300000000001</v>
+      </c>
+      <c r="H128" s="31">
+        <f t="shared" ref="H128:H132" si="2" xml:space="preserve"> MIN($I$127 * $B128, $I$134 * $I$129)</f>
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="23"/>
+      <c r="B129" s="21">
+        <v>4</v>
+      </c>
+      <c r="C129" s="26">
+        <v>5.0552800000000002E-2</v>
+      </c>
+      <c r="D129" s="26">
+        <v>0.50823200000000002</v>
+      </c>
+      <c r="E129" s="26">
+        <v>2.0821900000000002</v>
+      </c>
+      <c r="F129" s="26">
+        <v>4.1936999999999998</v>
+      </c>
+      <c r="G129" s="27">
+        <v>4.2588299999999997</v>
+      </c>
+      <c r="H129" s="31">
+        <f t="shared" si="2"/>
+        <v>14.5</v>
+      </c>
+      <c r="I129" s="30">
+        <f xml:space="preserve"> 1 / 12</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="23"/>
+      <c r="B130" s="21">
+        <v>8</v>
+      </c>
+      <c r="C130" s="26">
+        <v>4.0982499999999998E-2</v>
+      </c>
+      <c r="D130" s="26">
+        <v>0.37384000000000001</v>
+      </c>
+      <c r="E130" s="26">
+        <v>2.1013799999999998</v>
+      </c>
+      <c r="F130" s="26">
+        <v>6.2388399999999997</v>
+      </c>
+      <c r="G130" s="27">
+        <v>7.2864699999999996</v>
+      </c>
+      <c r="H130" s="31">
+        <f t="shared" si="2"/>
+        <v>19.166666666666664</v>
+      </c>
+      <c r="I130" s="30">
+        <f xml:space="preserve"> 3 / 40</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="23"/>
+      <c r="B131" s="21">
+        <v>10</v>
+      </c>
+      <c r="C131" s="26">
+        <v>3.7536899999999998E-2</v>
+      </c>
+      <c r="D131" s="26">
+        <v>0.44701999999999997</v>
+      </c>
+      <c r="E131" s="26">
+        <v>2.40625</v>
+      </c>
+      <c r="F131" s="26">
+        <v>5.9834199999999997</v>
+      </c>
+      <c r="G131" s="27">
+        <v>6.50556</v>
+      </c>
+      <c r="H131" s="31">
+        <f t="shared" si="2"/>
+        <v>19.166666666666664</v>
+      </c>
+      <c r="I131" s="30">
+        <f xml:space="preserve"> 1 / 12</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="25"/>
+      <c r="B132" s="22">
+        <v>16</v>
+      </c>
+      <c r="C132" s="28">
+        <v>1.7347499999999998E-2</v>
+      </c>
+      <c r="D132" s="28">
+        <v>2.8064599999999999E-2</v>
+      </c>
+      <c r="E132" s="28">
+        <v>0.51692000000000005</v>
+      </c>
+      <c r="F132" s="28">
+        <v>5.5456099999999999</v>
+      </c>
+      <c r="G132" s="29">
+        <v>7.15212</v>
+      </c>
+      <c r="H132" s="31">
+        <f t="shared" si="2"/>
+        <v>19.166666666666664</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" s="21">
+        <v>1</v>
+      </c>
+      <c r="C133" s="26">
+        <v>1.3848800000000001</v>
+      </c>
+      <c r="D133" s="26">
+        <v>2.70146</v>
+      </c>
+      <c r="E133" s="26">
+        <v>2.89934</v>
+      </c>
+      <c r="F133" s="26">
+        <v>1.8375699999999999</v>
+      </c>
+      <c r="G133" s="27">
+        <v>2.7118899999999999</v>
+      </c>
+      <c r="H133" s="31">
+        <f xml:space="preserve"> MIN($I$127 * $B133, $I$134 * $I$130)</f>
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="23"/>
+      <c r="B134" s="21">
+        <v>2</v>
+      </c>
+      <c r="C134" s="26">
+        <v>1.4005300000000001</v>
+      </c>
+      <c r="D134" s="26">
+        <v>1.6383000000000001</v>
+      </c>
+      <c r="E134" s="26">
+        <v>4.2565999999999997</v>
+      </c>
+      <c r="F134" s="26">
+        <v>5.1111399999999998</v>
+      </c>
+      <c r="G134" s="27">
+        <v>3.2193800000000001</v>
+      </c>
+      <c r="H134" s="31">
+        <f t="shared" ref="H134:H138" si="3" xml:space="preserve"> MIN($I$127 * $B134, $I$134 * $I$130)</f>
+        <v>7.25</v>
+      </c>
+      <c r="I134" s="30">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="23"/>
+      <c r="B135" s="21">
+        <v>4</v>
+      </c>
+      <c r="C135" s="26">
+        <v>1.0941700000000001</v>
+      </c>
+      <c r="D135" s="26">
+        <v>4.6616900000000001</v>
+      </c>
+      <c r="E135" s="26">
+        <v>6.2618600000000004</v>
+      </c>
+      <c r="F135" s="26">
+        <v>11.054</v>
+      </c>
+      <c r="G135" s="27">
+        <v>9.4203399999999995</v>
+      </c>
+      <c r="H135" s="31">
+        <f t="shared" si="3"/>
+        <v>14.5</v>
+      </c>
+      <c r="I135">
+        <f xml:space="preserve"> 230 / 80</f>
+        <v>2.875</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="23"/>
+      <c r="B136" s="21">
+        <v>8</v>
+      </c>
+      <c r="C136" s="26">
+        <v>0.62354299999999996</v>
+      </c>
+      <c r="D136" s="26">
+        <v>4.5704099999999999</v>
+      </c>
+      <c r="E136" s="26">
+        <v>7.1049100000000003</v>
+      </c>
+      <c r="F136" s="26">
+        <v>12.931900000000001</v>
+      </c>
+      <c r="G136" s="27">
+        <v>10.780099999999999</v>
+      </c>
+      <c r="H136" s="31">
+        <f t="shared" si="3"/>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="23"/>
+      <c r="B137" s="21">
+        <v>10</v>
+      </c>
+      <c r="C137" s="26">
+        <v>0.60232300000000005</v>
+      </c>
+      <c r="D137" s="26">
+        <v>3.87446</v>
+      </c>
+      <c r="E137" s="26">
+        <v>7.9990699999999997</v>
+      </c>
+      <c r="F137" s="26">
+        <v>9.2840299999999996</v>
+      </c>
+      <c r="G137" s="27">
+        <v>10.4717</v>
+      </c>
+      <c r="H137" s="31">
+        <f t="shared" si="3"/>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="25"/>
+      <c r="B138" s="22">
+        <v>16</v>
+      </c>
+      <c r="C138" s="28">
+        <v>0.75403200000000004</v>
+      </c>
+      <c r="D138" s="28">
+        <v>2.2169500000000002</v>
+      </c>
+      <c r="E138" s="28">
+        <v>2.89934</v>
+      </c>
+      <c r="F138" s="28">
+        <v>14.2317</v>
+      </c>
+      <c r="G138" s="29">
+        <v>11.686400000000001</v>
+      </c>
+      <c r="H138" s="31">
+        <f t="shared" si="3"/>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" s="21">
+        <v>1</v>
+      </c>
+      <c r="C139" s="26">
+        <v>0.82941900000000002</v>
+      </c>
+      <c r="D139" s="26">
+        <v>1.0023599999999999</v>
+      </c>
+      <c r="E139" s="26">
+        <v>1.0656699999999999</v>
+      </c>
+      <c r="F139" s="26">
+        <v>1.07443</v>
+      </c>
+      <c r="G139" s="27">
+        <v>1.0495699999999999</v>
+      </c>
+      <c r="H139" s="31">
+        <f xml:space="preserve"> MIN($I$127 * $B139, $I$134 * $I$129)</f>
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="23"/>
+      <c r="B140" s="21">
+        <v>2</v>
+      </c>
+      <c r="C140" s="26">
+        <v>1.34771</v>
+      </c>
+      <c r="D140" s="26">
+        <v>1.20357</v>
+      </c>
+      <c r="E140" s="26">
+        <v>2.06568</v>
+      </c>
+      <c r="F140" s="26">
+        <v>2.0727199999999999</v>
+      </c>
+      <c r="G140" s="27">
+        <v>1.62066</v>
+      </c>
+      <c r="H140" s="31">
+        <f t="shared" ref="H140:H144" si="4" xml:space="preserve"> MIN($I$127 * $B140, $I$134 * $I$129)</f>
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="23"/>
+      <c r="B141" s="21">
+        <v>4</v>
+      </c>
+      <c r="C141" s="26">
+        <v>1.1970400000000001</v>
+      </c>
+      <c r="D141" s="26">
+        <v>2.6794699999999998</v>
+      </c>
+      <c r="E141" s="26">
+        <v>2.9403700000000002</v>
+      </c>
+      <c r="F141" s="26">
+        <v>4.2672400000000001</v>
+      </c>
+      <c r="G141" s="27">
+        <v>3.9350499999999999</v>
+      </c>
+      <c r="H141" s="31">
+        <f t="shared" si="4"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="23"/>
+      <c r="B142" s="21">
+        <v>8</v>
+      </c>
+      <c r="C142" s="26">
+        <v>0.74270700000000001</v>
+      </c>
+      <c r="D142" s="26">
+        <v>2.7589399999999999</v>
+      </c>
+      <c r="E142" s="26">
+        <v>3.3019599999999998</v>
+      </c>
+      <c r="F142" s="26">
+        <v>5.1990299999999996</v>
+      </c>
+      <c r="G142" s="27">
+        <v>5.1117100000000004</v>
+      </c>
+      <c r="H142" s="31">
+        <f t="shared" si="4"/>
+        <v>19.166666666666664</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="23"/>
+      <c r="B143" s="21">
+        <v>10</v>
+      </c>
+      <c r="C143" s="26">
+        <v>0.70647499999999996</v>
+      </c>
+      <c r="D143" s="26">
+        <v>2.7422399999999998</v>
+      </c>
+      <c r="E143" s="26">
+        <v>3.7055699999999998</v>
+      </c>
+      <c r="F143" s="26">
+        <v>4.43682</v>
+      </c>
+      <c r="G143" s="27">
+        <v>5.8517700000000001</v>
+      </c>
+      <c r="H143" s="31">
+        <f t="shared" si="4"/>
+        <v>19.166666666666664</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="25"/>
+      <c r="B144" s="22">
+        <v>16</v>
+      </c>
+      <c r="C144" s="28">
+        <v>0.585009</v>
+      </c>
+      <c r="D144" s="28">
+        <v>2.4961600000000002</v>
+      </c>
+      <c r="E144" s="28">
+        <v>3.9525199999999998</v>
+      </c>
+      <c r="F144" s="28">
+        <v>7.1849400000000001</v>
+      </c>
+      <c r="G144" s="29">
+        <v>5.97079</v>
+      </c>
+      <c r="H144" s="31">
+        <f t="shared" si="4"/>
+        <v>19.166666666666664</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="147" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="148" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" s="19">
+        <v>1000</v>
+      </c>
+      <c r="D148" s="19">
+        <v>10000</v>
+      </c>
+      <c r="E148" s="19">
+        <v>100000</v>
+      </c>
+      <c r="F148" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G148" s="20">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B149" s="21">
+        <v>1</v>
+      </c>
+      <c r="C149" s="26">
+        <f xml:space="preserve"> C127 * 100 / $H127</f>
+        <v>3.2354482758620691</v>
+      </c>
+      <c r="D149" s="26">
+        <f t="shared" ref="D149:G149" si="5" xml:space="preserve"> D127 * 100 / $H127</f>
+        <v>28.007172413793107</v>
+      </c>
+      <c r="E149" s="26">
+        <f t="shared" si="5"/>
+        <v>33.763310344827588</v>
+      </c>
+      <c r="F149" s="26">
+        <f t="shared" si="5"/>
+        <v>33.750620689655172</v>
+      </c>
+      <c r="G149" s="26">
+        <f t="shared" si="5"/>
+        <v>36.005517241379309</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="23"/>
+      <c r="B150" s="21">
+        <v>2</v>
+      </c>
+      <c r="C150" s="26">
+        <f t="shared" ref="C150:G166" si="6" xml:space="preserve"> C128 * 100 / $H128</f>
+        <v>1.9038758620689653</v>
+      </c>
+      <c r="D150" s="26">
+        <f t="shared" si="6"/>
+        <v>7.36424827586207</v>
+      </c>
+      <c r="E150" s="26">
+        <f t="shared" si="6"/>
+        <v>22.052551724137931</v>
+      </c>
+      <c r="F150" s="26">
+        <f t="shared" si="6"/>
+        <v>33.722344827586205</v>
+      </c>
+      <c r="G150" s="26">
+        <f t="shared" si="6"/>
+        <v>29.150758620689658</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="23"/>
+      <c r="B151" s="21">
+        <v>4</v>
+      </c>
+      <c r="C151" s="26">
+        <f t="shared" si="6"/>
+        <v>0.34864000000000001</v>
+      </c>
+      <c r="D151" s="26">
+        <f t="shared" si="6"/>
+        <v>3.5050482758620691</v>
+      </c>
+      <c r="E151" s="26">
+        <f t="shared" si="6"/>
+        <v>14.359931034482759</v>
+      </c>
+      <c r="F151" s="26">
+        <f t="shared" si="6"/>
+        <v>28.922068965517241</v>
+      </c>
+      <c r="G151" s="26">
+        <f t="shared" si="6"/>
+        <v>29.371241379310344</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="23"/>
+      <c r="B152" s="21">
+        <v>8</v>
+      </c>
+      <c r="C152" s="26">
+        <f t="shared" si="6"/>
+        <v>0.21382173913043481</v>
+      </c>
+      <c r="D152" s="26">
+        <f t="shared" si="6"/>
+        <v>1.9504695652173916</v>
+      </c>
+      <c r="E152" s="26">
+        <f t="shared" si="6"/>
+        <v>10.963721739130435</v>
+      </c>
+      <c r="F152" s="26">
+        <f t="shared" si="6"/>
+        <v>32.550469565217398</v>
+      </c>
+      <c r="G152" s="26">
+        <f t="shared" si="6"/>
+        <v>38.016365217391304</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="23"/>
+      <c r="B153" s="21">
+        <v>10</v>
+      </c>
+      <c r="C153" s="26">
+        <f t="shared" si="6"/>
+        <v>0.19584469565217391</v>
+      </c>
+      <c r="D153" s="26">
+        <f t="shared" si="6"/>
+        <v>2.3322782608695656</v>
+      </c>
+      <c r="E153" s="26">
+        <f t="shared" si="6"/>
+        <v>12.554347826086959</v>
+      </c>
+      <c r="F153" s="26">
+        <f t="shared" si="6"/>
+        <v>31.217843478260871</v>
+      </c>
+      <c r="G153" s="26">
+        <f t="shared" si="6"/>
+        <v>33.942052173913048</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="25"/>
+      <c r="B154" s="22">
+        <v>16</v>
+      </c>
+      <c r="C154" s="26">
+        <f t="shared" si="6"/>
+        <v>9.0508695652173912E-2</v>
+      </c>
+      <c r="D154" s="26">
+        <f t="shared" si="6"/>
+        <v>0.14642400000000003</v>
+      </c>
+      <c r="E154" s="26">
+        <f t="shared" si="6"/>
+        <v>2.6969739130434789</v>
+      </c>
+      <c r="F154" s="26">
+        <f t="shared" si="6"/>
+        <v>28.933617391304352</v>
+      </c>
+      <c r="G154" s="26">
+        <f t="shared" si="6"/>
+        <v>37.315408695652181</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" s="21">
+        <v>1</v>
+      </c>
+      <c r="C155" s="26">
+        <f t="shared" si="6"/>
+        <v>38.203586206896553</v>
+      </c>
+      <c r="D155" s="26">
+        <f t="shared" si="6"/>
+        <v>74.523034482758618</v>
+      </c>
+      <c r="E155" s="26">
+        <f t="shared" si="6"/>
+        <v>79.981793103448283</v>
+      </c>
+      <c r="F155" s="26">
+        <f t="shared" si="6"/>
+        <v>50.691586206896552</v>
+      </c>
+      <c r="G155" s="26">
+        <f t="shared" si="6"/>
+        <v>74.81075862068964</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="23"/>
+      <c r="B156" s="21">
+        <v>2</v>
+      </c>
+      <c r="C156" s="26">
+        <f t="shared" si="6"/>
+        <v>19.317655172413794</v>
+      </c>
+      <c r="D156" s="26">
+        <f t="shared" si="6"/>
+        <v>22.597241379310347</v>
+      </c>
+      <c r="E156" s="26">
+        <f t="shared" si="6"/>
+        <v>58.711724137931029</v>
+      </c>
+      <c r="F156" s="26">
+        <f t="shared" si="6"/>
+        <v>70.498482758620682</v>
+      </c>
+      <c r="G156" s="26">
+        <f t="shared" si="6"/>
+        <v>44.40524137931034</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="23"/>
+      <c r="B157" s="21">
+        <v>4</v>
+      </c>
+      <c r="C157" s="26">
+        <f t="shared" si="6"/>
+        <v>7.5460000000000003</v>
+      </c>
+      <c r="D157" s="26">
+        <f t="shared" si="6"/>
+        <v>32.149586206896551</v>
+      </c>
+      <c r="E157" s="26">
+        <f t="shared" si="6"/>
+        <v>43.185241379310348</v>
+      </c>
+      <c r="F157" s="26">
+        <f t="shared" si="6"/>
+        <v>76.2344827586207</v>
+      </c>
+      <c r="G157" s="26">
+        <f t="shared" si="6"/>
+        <v>64.967862068965516</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="23"/>
+      <c r="B158" s="21">
+        <v>8</v>
+      </c>
+      <c r="C158" s="26">
+        <f t="shared" si="6"/>
+        <v>3.614742028985507</v>
+      </c>
+      <c r="D158" s="26">
+        <f t="shared" si="6"/>
+        <v>26.49513043478261</v>
+      </c>
+      <c r="E158" s="26">
+        <f t="shared" si="6"/>
+        <v>41.187884057971011</v>
+      </c>
+      <c r="F158" s="26">
+        <f t="shared" si="6"/>
+        <v>74.967536231884054</v>
+      </c>
+      <c r="G158" s="26">
+        <f t="shared" si="6"/>
+        <v>62.493333333333332</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="23"/>
+      <c r="B159" s="21">
+        <v>10</v>
+      </c>
+      <c r="C159" s="26">
+        <f t="shared" si="6"/>
+        <v>3.4917275362318843</v>
+      </c>
+      <c r="D159" s="26">
+        <f t="shared" si="6"/>
+        <v>22.460637681159422</v>
+      </c>
+      <c r="E159" s="26">
+        <f t="shared" si="6"/>
+        <v>46.371420289855067</v>
+      </c>
+      <c r="F159" s="26">
+        <f t="shared" si="6"/>
+        <v>53.820463768115935</v>
+      </c>
+      <c r="G159" s="26">
+        <f t="shared" si="6"/>
+        <v>60.705507246376818</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="25"/>
+      <c r="B160" s="22">
+        <v>16</v>
+      </c>
+      <c r="C160" s="26">
+        <f t="shared" si="6"/>
+        <v>4.3712</v>
+      </c>
+      <c r="D160" s="26">
+        <f t="shared" si="6"/>
+        <v>12.851884057971017</v>
+      </c>
+      <c r="E160" s="26">
+        <f t="shared" si="6"/>
+        <v>16.807768115942032</v>
+      </c>
+      <c r="F160" s="26">
+        <f t="shared" si="6"/>
+        <v>82.502608695652185</v>
+      </c>
+      <c r="G160" s="26">
+        <f t="shared" si="6"/>
+        <v>67.747246376811603</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" s="21">
+        <v>1</v>
+      </c>
+      <c r="C161" s="26">
+        <f t="shared" si="6"/>
+        <v>22.880524137931037</v>
+      </c>
+      <c r="D161" s="26">
+        <f t="shared" si="6"/>
+        <v>27.651310344827582</v>
+      </c>
+      <c r="E161" s="26">
+        <f t="shared" si="6"/>
+        <v>29.397793103448272</v>
+      </c>
+      <c r="F161" s="26">
+        <f t="shared" si="6"/>
+        <v>29.639448275862069</v>
+      </c>
+      <c r="G161" s="26">
+        <f t="shared" si="6"/>
+        <v>28.953655172413793</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="23"/>
+      <c r="B162" s="21">
+        <v>2</v>
+      </c>
+      <c r="C162" s="26">
+        <f t="shared" si="6"/>
+        <v>18.589103448275861</v>
+      </c>
+      <c r="D162" s="26">
+        <f t="shared" si="6"/>
+        <v>16.600965517241381</v>
+      </c>
+      <c r="E162" s="26">
+        <f t="shared" si="6"/>
+        <v>28.492137931034481</v>
+      </c>
+      <c r="F162" s="26">
+        <f t="shared" si="6"/>
+        <v>28.589241379310344</v>
+      </c>
+      <c r="G162" s="26">
+        <f t="shared" si="6"/>
+        <v>22.353931034482759</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="23"/>
+      <c r="B163" s="21">
+        <v>4</v>
+      </c>
+      <c r="C163" s="26">
+        <f t="shared" si="6"/>
+        <v>8.2554482758620686</v>
+      </c>
+      <c r="D163" s="26">
+        <f t="shared" si="6"/>
+        <v>18.479103448275861</v>
+      </c>
+      <c r="E163" s="26">
+        <f t="shared" si="6"/>
+        <v>20.27841379310345</v>
+      </c>
+      <c r="F163" s="26">
+        <f t="shared" si="6"/>
+        <v>29.429241379310344</v>
+      </c>
+      <c r="G163" s="26">
+        <f t="shared" si="6"/>
+        <v>27.138275862068966</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="23"/>
+      <c r="B164" s="21">
+        <v>8</v>
+      </c>
+      <c r="C164" s="26">
+        <f t="shared" si="6"/>
+        <v>3.8749930434782618</v>
+      </c>
+      <c r="D164" s="26">
+        <f t="shared" si="6"/>
+        <v>14.394469565217394</v>
+      </c>
+      <c r="E164" s="26">
+        <f t="shared" si="6"/>
+        <v>17.227617391304349</v>
+      </c>
+      <c r="F164" s="26">
+        <f t="shared" si="6"/>
+        <v>27.125373913043475</v>
+      </c>
+      <c r="G164" s="26">
+        <f t="shared" si="6"/>
+        <v>26.669791304347832</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="23"/>
+      <c r="B165" s="21">
+        <v>10</v>
+      </c>
+      <c r="C165" s="26">
+        <f t="shared" si="6"/>
+        <v>3.6859565217391306</v>
+      </c>
+      <c r="D165" s="26">
+        <f t="shared" si="6"/>
+        <v>14.307339130434784</v>
+      </c>
+      <c r="E165" s="26">
+        <f t="shared" si="6"/>
+        <v>19.333408695652174</v>
+      </c>
+      <c r="F165" s="26">
+        <f t="shared" si="6"/>
+        <v>23.148626086956526</v>
+      </c>
+      <c r="G165" s="26">
+        <f t="shared" si="6"/>
+        <v>30.530973913043482</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="25"/>
+      <c r="B166" s="22">
+        <v>16</v>
+      </c>
+      <c r="C166" s="26">
+        <f t="shared" si="6"/>
+        <v>3.0522208695652178</v>
+      </c>
+      <c r="D166" s="26">
+        <f t="shared" si="6"/>
+        <v>13.023443478260871</v>
+      </c>
+      <c r="E166" s="26">
+        <f t="shared" si="6"/>
+        <v>20.621843478260871</v>
+      </c>
+      <c r="F166" s="26">
+        <f t="shared" si="6"/>
+        <v>37.486643478260874</v>
+      </c>
+      <c r="G166" s="26">
+        <f t="shared" si="6"/>
+        <v>31.151947826086957</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A127:A132"/>
+    <mergeCell ref="A133:A138"/>
+    <mergeCell ref="A139:A144"/>
+    <mergeCell ref="A149:A154"/>
+    <mergeCell ref="A155:A160"/>
+    <mergeCell ref="A161:A166"/>
+    <mergeCell ref="A78:A83"/>
+    <mergeCell ref="A84:A89"/>
+    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="A101:A106"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="A113:A118"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
